--- a/data/financials/market_cap.xlsx
+++ b/data/financials/market_cap.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9562,7 +9562,7 @@
         <v>84139443233.0959</v>
       </c>
       <c r="C61" t="n">
-        <v>37017517747.8317</v>
+        <v>37162704117.143</v>
       </c>
       <c r="D61" t="n">
         <v>30700215476.3095</v>
@@ -9637,7 +9637,7 @@
         <v>3865979226.66421</v>
       </c>
       <c r="AB61" t="n">
-        <v>4421483962.27663</v>
+        <v>4438825460.1</v>
       </c>
       <c r="AC61" t="n">
         <v>4392190719.96</v>
@@ -10203,7 +10203,7 @@
         <v>14355119437.1319</v>
       </c>
       <c r="J65" t="n">
-        <v>14079541120.599</v>
+        <v>13963295945.8</v>
       </c>
       <c r="K65" t="n">
         <v>123719140400</v>
@@ -10215,7 +10215,7 @@
         <v>12321250960</v>
       </c>
       <c r="N65" t="n">
-        <v>11492504980.6452</v>
+        <v>11397619200</v>
       </c>
       <c r="O65" t="n">
         <v>10090084717.7662</v>
@@ -10257,7 +10257,7 @@
         <v>5477320558.32</v>
       </c>
       <c r="AB65" t="n">
-        <v>5023986736.29333</v>
+        <v>4982507102.025</v>
       </c>
       <c r="AC65" t="n">
         <v>4823352724.2</v>
@@ -10269,7 +10269,7 @@
         <v>4427115692.25685</v>
       </c>
       <c r="AF65" t="n">
-        <v>4313843344.63793</v>
+        <v>4278226880.34</v>
       </c>
       <c r="AG65" t="n">
         <v>4266457740.46098</v>
